--- a/Public/report/excel/unit_ywl_20160101_20160331.xlsx
+++ b/Public/report/excel/unit_ywl_20160101_20160331.xlsx
@@ -26,7 +26,7 @@
     <t>有效对公客户</t>
   </si>
   <si>
-    <t xml:space="preserve">储蓄存款日均增量-2016-04-10
+    <t xml:space="preserve">储蓄存款日均增量-2016-05-31
 </t>
   </si>
   <si>
@@ -752,9 +752,11 @@
       <c r="N4" s="2">
         <v>10</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>62.66</v>
+      </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>626.6</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="3">
@@ -788,13 +790,13 @@
         <v>1380</v>
       </c>
       <c r="D5" s="3">
-        <v>1671.196957</v>
+        <v>1671.016957</v>
       </c>
       <c r="E5" s="3">
-        <v>121.10122876812</v>
+        <v>121.08818528986</v>
       </c>
       <c r="F5" s="3">
-        <v>1671.196957</v>
+        <v>1671.016957</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3">
@@ -816,9 +818,11 @@
       <c r="N5" s="2">
         <v>21</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="3">
+        <v>45.96</v>
+      </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>218.85714285714</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="3">
@@ -832,13 +836,13 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="3">
-        <v>1587.92003</v>
+        <v>1587.74003</v>
       </c>
       <c r="W5" s="3">
         <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>1587.92003</v>
+        <v>1587.74003</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -880,9 +884,11 @@
       <c r="N6" s="2">
         <v>15</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>6.66</v>
+      </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="3">
@@ -944,9 +950,11 @@
       <c r="N7" s="2">
         <v>11</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>7.48</v>
+      </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="3">
@@ -1008,9 +1016,11 @@
       <c r="N8" s="2">
         <v>20</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>-15.18</v>
+      </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>-75.9</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="3">
@@ -1072,9 +1082,11 @@
       <c r="N9" s="2">
         <v>32</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>-103.23</v>
+      </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>-322.59375</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="3">
@@ -1136,9 +1148,11 @@
       <c r="N10" s="2">
         <v>4</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>5.41</v>
+      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>135.25</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="3">
@@ -1200,9 +1214,11 @@
       <c r="N11" s="2">
         <v>6</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>5.88</v>
+      </c>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="3">
@@ -1264,9 +1280,11 @@
       <c r="N12" s="2">
         <v>10</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3">
+        <v>1.35</v>
+      </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="3">
@@ -1328,9 +1346,11 @@
       <c r="N13" s="2">
         <v>4</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>1.48</v>
+      </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="3">
@@ -1392,9 +1412,11 @@
       <c r="N14" s="2">
         <v>4</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3">
+        <v>2.36</v>
+      </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="3">
@@ -1456,9 +1478,11 @@
       <c r="N15" s="2">
         <v>4</v>
       </c>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3">
+        <v>5.74</v>
+      </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>143.5</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="3">
@@ -1520,9 +1544,11 @@
       <c r="N16" s="2">
         <v>4</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3">
+        <v>6.29</v>
+      </c>
       <c r="P16" s="3">
-        <v>0</v>
+        <v>157.25</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="3">
@@ -1584,9 +1610,11 @@
       <c r="N17" s="2">
         <v>4</v>
       </c>
-      <c r="O17" s="3"/>
+      <c r="O17" s="3">
+        <v>-3.55</v>
+      </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>-88.75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="3">
@@ -1648,9 +1676,11 @@
       <c r="N18" s="2">
         <v>4</v>
       </c>
-      <c r="O18" s="3"/>
+      <c r="O18" s="3">
+        <v>11.29</v>
+      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>282.25</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="3">
@@ -1712,9 +1742,11 @@
       <c r="N19" s="2">
         <v>5</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3">
+        <v>12.95</v>
+      </c>
       <c r="P19" s="3">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="3">
@@ -1926,7 +1958,9 @@
         <v>0</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
+      <c r="O22" s="3">
+        <v>-45.54</v>
+      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1988,7 +2022,9 @@
         <v>0</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="3">
+        <v>17.34</v>
+      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -2050,7 +2086,9 @@
         <v>0</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="3"/>
+      <c r="O24" s="3">
+        <v>3.26</v>
+      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
